--- a/biology/Botanique/Natalie_MacLean/Natalie_MacLean.xlsx
+++ b/biology/Botanique/Natalie_MacLean/Natalie_MacLean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Natalie MacLean est une critique de vin canadienne et une auteure d'ouvrages consacrés au vin[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Natalie MacLean est une critique de vin canadienne et une auteure d'ouvrages consacrés au vin.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plus de son travail publié dans les livres Red, White et Drunk All Over (2006[1]) et Unquenchable (2011[2]), dans ses bulletins électroniques et sur son site Web, les écrits de MacLean ont été inclus dans des publications telles que Epicurious (en)[3], The Guardian[4], The Age[5], The Huffington Post[6], BusinessWeek, Chicago Tribune et Ottawa Citizen[7].
-Les adhésions au site Web de MacLean ont été estimées à plus de 145 000 abonnés[8]. Parmi ses récompenses, il y a le Louis Roederer 2009 Online Wine Writer of the Year[9] et le Jacob's Creek Awards 2003 World's Best Drink Writer[5],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de son travail publié dans les livres Red, White et Drunk All Over (2006) et Unquenchable (2011), dans ses bulletins électroniques et sur son site Web, les écrits de MacLean ont été inclus dans des publications telles que Epicurious (en), The Guardian, The Age, The Huffington Post, BusinessWeek, Chicago Tribune et Ottawa Citizen.
+Les adhésions au site Web de MacLean ont été estimées à plus de 145 000 abonnés. Parmi ses récompenses, il y a le Louis Roederer 2009 Online Wine Writer of the Year et le Jacob's Creek Awards 2003 World's Best Drink Writer,.
 </t>
         </is>
       </c>
